--- a/Dataset_Heart Rate.xlsx
+++ b/Dataset_Heart Rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSU8\Desktop\# 652\652MAT153\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howar\Desktop\Runes\first_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99188898-BD95-4A1E-91A3-A8363FDBED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179EBA6C-73EC-41FA-A33A-37B0250A7932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2985" windowWidth="24015" windowHeight="18600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="53">
   <si>
     <t>Gender</t>
   </si>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -14245,8 +14245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C801"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14255,12 +14255,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
